--- a/files/reporte-movilidad-entrada.xlsx
+++ b/files/reporte-movilidad-entrada.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Id</t>
   </si>
@@ -89,84 +89,6 @@
   </si>
   <si>
     <t>Autor</t>
-  </si>
-  <si>
-    <t>2022-2</t>
-  </si>
-  <si>
-    <t>VALLe DORADO</t>
-  </si>
-  <si>
-    <t>ensenada</t>
-  </si>
-  <si>
-    <t>JUDITH</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>SERRANO</t>
-  </si>
-  <si>
-    <t>Femenino</t>
-  </si>
-  <si>
-    <t>Doctorado</t>
-  </si>
-  <si>
-    <t>SAUZAL</t>
-  </si>
-  <si>
-    <t>MEXICO</t>
-  </si>
-  <si>
-    <t>BAJA CALIFORNIA</t>
-  </si>
-  <si>
-    <t>ESPAÑOL</t>
-  </si>
-  <si>
-    <t>Estancias Sabaticas</t>
-  </si>
-  <si>
-    <t>judith</t>
-  </si>
-  <si>
-    <t>periodo</t>
-  </si>
-  <si>
-    <t>destino</t>
-  </si>
-  <si>
-    <t>unidaddd</t>
-  </si>
-  <si>
-    <t>fernanada</t>
-  </si>
-  <si>
-    <t>alcala</t>
-  </si>
-  <si>
-    <t>perrez</t>
-  </si>
-  <si>
-    <t>Licenciatura</t>
-  </si>
-  <si>
-    <t>medicina</t>
-  </si>
-  <si>
-    <t>mexico</t>
-  </si>
-  <si>
-    <t>sonora</t>
-  </si>
-  <si>
-    <t>español</t>
-  </si>
-  <si>
-    <t>Estancia de Investigacion</t>
   </si>
 </sst>
 </file>
@@ -547,7 +469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="26" width="10" customWidth="1"/>
@@ -633,166 +555,6 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>354321</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2">
-        <v>324354</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2">
-        <v>35435</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2">
-        <v>54354</v>
-      </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2">
-        <v>4</v>
-      </c>
-      <c r="O2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2">
-        <v>2</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>2</v>
-      </c>
-      <c r="S2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
-        <v>37</v>
-      </c>
-      <c r="W2">
-        <v>2</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>9999</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3">
-        <v>62155</v>
-      </c>
-      <c r="E3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3">
-        <v>5435435</v>
-      </c>
-      <c r="G3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3">
-        <v>4524</v>
-      </c>
-      <c r="I3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3" t="s">
-        <v>47</v>
-      </c>
-      <c r="T3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U3" t="s">
-        <v>49</v>
-      </c>
-      <c r="V3" t="s">
-        <v>50</v>
-      </c>
-      <c r="W3">
-        <v>3</v>
-      </c>
-      <c r="X3">
-        <v>1</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>39</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
